--- a/AirCoonUWP/Data/aIRLINE.xlsx
+++ b/AirCoonUWP/Data/aIRLINE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22480" windowHeight="10333" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22477" windowHeight="10329" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="403">
   <si>
     <t>Name</t>
   </si>
@@ -58,18 +58,12 @@
     <t>Hubs</t>
   </si>
   <si>
-    <t>FRA;MUC;DUS</t>
-  </si>
-  <si>
     <t>Quote</t>
   </si>
   <si>
     <t>intercontinental:Continental:Country</t>
   </si>
   <si>
-    <t>At least 2</t>
-  </si>
-  <si>
     <t>Alliance</t>
   </si>
   <si>
@@ -100,15 +94,9 @@
     <t>DUS</t>
   </si>
   <si>
-    <t>DUS;MUC</t>
-  </si>
-  <si>
     <t>55</t>
   </si>
   <si>
-    <t>0:7:2</t>
-  </si>
-  <si>
     <t>CRJ;A320</t>
   </si>
   <si>
@@ -187,27 +175,15 @@
     <t>Country</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
     <t>VIAair</t>
   </si>
   <si>
-    <t>Bulgarien</t>
-  </si>
-  <si>
     <t>CRO</t>
   </si>
   <si>
     <t>Croatian</t>
   </si>
   <si>
-    <t>Croatia</t>
-  </si>
-  <si>
     <t>CKZ</t>
   </si>
   <si>
@@ -223,9 +199,6 @@
     <t>PropTime</t>
   </si>
   <si>
-    <t>Dänemark</t>
-  </si>
-  <si>
     <t>OSA</t>
   </si>
   <si>
@@ -259,18 +232,12 @@
     <t>Southica</t>
   </si>
   <si>
-    <t>Italien</t>
-  </si>
-  <si>
     <t>LLA</t>
   </si>
   <si>
     <t>Lapland Air</t>
   </si>
   <si>
-    <t>Finnland</t>
-  </si>
-  <si>
     <t>AAG</t>
   </si>
   <si>
@@ -283,18 +250,12 @@
     <t>Air Paris</t>
   </si>
   <si>
-    <t>Paris Orly?</t>
-  </si>
-  <si>
     <t>CRA</t>
   </si>
   <si>
     <t>Cross Atlantique</t>
   </si>
   <si>
-    <t>der andere in Paris</t>
-  </si>
-  <si>
     <t>GS</t>
   </si>
   <si>
@@ -337,9 +298,6 @@
     <t>ALA</t>
   </si>
   <si>
-    <t>Over the Albs</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
@@ -391,12 +349,6 @@
     <t>Max Baker Poland</t>
   </si>
   <si>
-    <t>Transportes Aéreos</t>
-  </si>
-  <si>
-    <t>TA</t>
-  </si>
-  <si>
     <t>TAP</t>
   </si>
   <si>
@@ -421,12 +373,6 @@
     <t>MAD</t>
   </si>
   <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>Canarian Airlines</t>
-  </si>
-  <si>
     <t>MBM</t>
   </si>
   <si>
@@ -565,9 +511,6 @@
     <t>Viracoposoli</t>
   </si>
   <si>
-    <t>VPC</t>
-  </si>
-  <si>
     <t>VIR</t>
   </si>
   <si>
@@ -619,15 +562,6 @@
     <t>Network Colombia</t>
   </si>
   <si>
-    <t>CRU</t>
-  </si>
-  <si>
-    <t>Cool Runnings Air</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
     <t>Americans</t>
   </si>
   <si>
@@ -677,6 +611,633 @@
   </si>
   <si>
     <t>Kolumbien</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>Fly on Ice</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>SLA</t>
+  </si>
+  <si>
+    <t>States Airlines</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>Theta Airlines</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>SLR</t>
+  </si>
+  <si>
+    <t>States Regional</t>
+  </si>
+  <si>
+    <t>JFK</t>
+  </si>
+  <si>
+    <t>DFW</t>
+  </si>
+  <si>
+    <t>THR</t>
+  </si>
+  <si>
+    <t>Theta Regional</t>
+  </si>
+  <si>
+    <t>Theta West</t>
+  </si>
+  <si>
+    <t>THW</t>
+  </si>
+  <si>
+    <t>SFO</t>
+  </si>
+  <si>
+    <t>JTR</t>
+  </si>
+  <si>
+    <t>Jet Red</t>
+  </si>
+  <si>
+    <t>Jet Red Connect</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>SWI</t>
+  </si>
+  <si>
+    <t>South Wings</t>
+  </si>
+  <si>
+    <t>AMO</t>
+  </si>
+  <si>
+    <t>Air Montana</t>
+  </si>
+  <si>
+    <t>GHO</t>
+  </si>
+  <si>
+    <t>Ghost Air</t>
+  </si>
+  <si>
+    <t>La Guardia</t>
+  </si>
+  <si>
+    <t>Ghost Air Connect</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>PAI</t>
+  </si>
+  <si>
+    <t>Partner Air by Theta</t>
+  </si>
+  <si>
+    <t>Boise</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>Hoover Air</t>
+  </si>
+  <si>
+    <t>Vegas</t>
+  </si>
+  <si>
+    <t>SWA</t>
+  </si>
+  <si>
+    <t>Swampland</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>NEA</t>
+  </si>
+  <si>
+    <t>North East Airways</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>PanEurope</t>
+  </si>
+  <si>
+    <t>MUC</t>
+  </si>
+  <si>
+    <t>URA</t>
+  </si>
+  <si>
+    <t>UraLines</t>
+  </si>
+  <si>
+    <t>SVO</t>
+  </si>
+  <si>
+    <t>PFC</t>
+  </si>
+  <si>
+    <t>DME</t>
+  </si>
+  <si>
+    <t>PFD</t>
+  </si>
+  <si>
+    <t>MEA</t>
+  </si>
+  <si>
+    <t>Middle Earth Airlines</t>
+  </si>
+  <si>
+    <t>AKL</t>
+  </si>
+  <si>
+    <t>BAI</t>
+  </si>
+  <si>
+    <t>Bahrain International</t>
+  </si>
+  <si>
+    <t>Bahrein</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>JAir</t>
+  </si>
+  <si>
+    <t>Osaka</t>
+  </si>
+  <si>
+    <t>Tokio H</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>Summer Airlines</t>
+  </si>
+  <si>
+    <t>Tokio N</t>
+  </si>
+  <si>
+    <t>CIM</t>
+  </si>
+  <si>
+    <t>Cimanon Wings</t>
+  </si>
+  <si>
+    <t>All Dojo</t>
+  </si>
+  <si>
+    <t>ADJ</t>
+  </si>
+  <si>
+    <t>Kyoto</t>
+  </si>
+  <si>
+    <t>TCJ</t>
+  </si>
+  <si>
+    <t>Transoceanic</t>
+  </si>
+  <si>
+    <t>ASW</t>
+  </si>
+  <si>
+    <t>Asia Wings</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>Eastern</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>PCF</t>
+  </si>
+  <si>
+    <t>Pacifica</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
+    <t>FDB</t>
+  </si>
+  <si>
+    <t>FlyDubai</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>ETA</t>
+  </si>
+  <si>
+    <t>Eternal Flame Airways</t>
+  </si>
+  <si>
+    <t>Abu dhabi</t>
+  </si>
+  <si>
+    <t>Notea Club</t>
+  </si>
+  <si>
+    <t>SVX</t>
+  </si>
+  <si>
+    <t>HAM</t>
+  </si>
+  <si>
+    <t>SOF</t>
+  </si>
+  <si>
+    <t>ZAG</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>PMO</t>
+  </si>
+  <si>
+    <t>HEL</t>
+  </si>
+  <si>
+    <t>CDG</t>
+  </si>
+  <si>
+    <t>ORY</t>
+  </si>
+  <si>
+    <t>BSL</t>
+  </si>
+  <si>
+    <t>MUC;DUS</t>
+  </si>
+  <si>
+    <t>LYS</t>
+  </si>
+  <si>
+    <t>ATH</t>
+  </si>
+  <si>
+    <t>HER</t>
+  </si>
+  <si>
+    <t>DUB</t>
+  </si>
+  <si>
+    <t>Over the Alps</t>
+  </si>
+  <si>
+    <t>VCE</t>
+  </si>
+  <si>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>PSA</t>
+  </si>
+  <si>
+    <t>FCO</t>
+  </si>
+  <si>
+    <t>WAW</t>
+  </si>
+  <si>
+    <t>POZ</t>
+  </si>
+  <si>
+    <t>ARN</t>
+  </si>
+  <si>
+    <t>MMX</t>
+  </si>
+  <si>
+    <t>LGW</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>MAN,EDI</t>
+  </si>
+  <si>
+    <t>BFS;GLA</t>
+  </si>
+  <si>
+    <t>NWI</t>
+  </si>
+  <si>
+    <t>KEF</t>
+  </si>
+  <si>
+    <t>ZRH</t>
+  </si>
+  <si>
+    <t>GVA</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>AYT</t>
+  </si>
+  <si>
+    <t>ADB</t>
+  </si>
+  <si>
+    <t>EZE</t>
+  </si>
+  <si>
+    <t>SSA</t>
+  </si>
+  <si>
+    <t>GRU</t>
+  </si>
+  <si>
+    <t>BSB</t>
+  </si>
+  <si>
+    <t>GIG</t>
+  </si>
+  <si>
+    <t>CGH</t>
+  </si>
+  <si>
+    <t>YYZ</t>
+  </si>
+  <si>
+    <t>YYC</t>
+  </si>
+  <si>
+    <t>YVR</t>
+  </si>
+  <si>
+    <t>YOW</t>
+  </si>
+  <si>
+    <t>YHZ;YWG</t>
+  </si>
+  <si>
+    <t>YUL</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>BOG</t>
+  </si>
+  <si>
+    <t>CUN</t>
+  </si>
+  <si>
+    <t>MTY</t>
+  </si>
+  <si>
+    <t>ACA</t>
+  </si>
+  <si>
+    <t>ECP</t>
+  </si>
+  <si>
+    <t>VER</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>PHX</t>
+  </si>
+  <si>
+    <t>LGA</t>
+  </si>
+  <si>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>LAS</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>BOI</t>
+  </si>
+  <si>
+    <t>SGF</t>
+  </si>
+  <si>
+    <t>IAH</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>LAX</t>
+  </si>
+  <si>
+    <t>SEA;FLL</t>
+  </si>
+  <si>
+    <t>DTW</t>
+  </si>
+  <si>
+    <t>UFA;KRR</t>
+  </si>
+  <si>
+    <t>VVO,KRR</t>
+  </si>
+  <si>
+    <t>BAH</t>
+  </si>
+  <si>
+    <t>ITM</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>NRT</t>
+  </si>
+  <si>
+    <t>KIX</t>
+  </si>
+  <si>
+    <t>CTS</t>
+  </si>
+  <si>
+    <t>ICN</t>
+  </si>
+  <si>
+    <t>MNL</t>
+  </si>
+  <si>
+    <t>DXB</t>
+  </si>
+  <si>
+    <t>AUH</t>
+  </si>
+  <si>
+    <t>DBV</t>
+  </si>
+  <si>
+    <t>FCO;MXP</t>
+  </si>
+  <si>
+    <t>MRS</t>
+  </si>
+  <si>
+    <t>0:7:4</t>
+  </si>
+  <si>
+    <t>0:1:1</t>
+  </si>
+  <si>
+    <t>1:2:2</t>
+  </si>
+  <si>
+    <t>0:1:0</t>
+  </si>
+  <si>
+    <t>1:5:2</t>
+  </si>
+  <si>
+    <t>2:1:0</t>
+  </si>
+  <si>
+    <t>1:3:1</t>
+  </si>
+  <si>
+    <t>1:5:1</t>
+  </si>
+  <si>
+    <t>0:2:1</t>
+  </si>
+  <si>
+    <t>1:2:1</t>
+  </si>
+  <si>
+    <t>1:2:3</t>
+  </si>
+  <si>
+    <t>3:1:1</t>
+  </si>
+  <si>
+    <t>0:3:0</t>
+  </si>
+  <si>
+    <t>2:7:1</t>
+  </si>
+  <si>
+    <t>1:1:0</t>
+  </si>
+  <si>
+    <t>0:3:1</t>
+  </si>
+  <si>
+    <t>1:4:2</t>
+  </si>
+  <si>
+    <t>1:3:2</t>
+  </si>
+  <si>
+    <t>0:0:1</t>
+  </si>
+  <si>
+    <t>1:2:0</t>
+  </si>
+  <si>
+    <t>0:1.0</t>
+  </si>
+  <si>
+    <t>0:3.1</t>
+  </si>
+  <si>
+    <t>0:1:2</t>
+  </si>
+  <si>
+    <t>0:1:3</t>
+  </si>
+  <si>
+    <t>0:1:5</t>
+  </si>
+  <si>
+    <t>2:1:1</t>
+  </si>
+  <si>
+    <t>0:1:4</t>
+  </si>
+  <si>
+    <t>JFK;IAD</t>
+  </si>
+  <si>
+    <t>0:1:7</t>
+  </si>
+  <si>
+    <t>1:0:1</t>
+  </si>
+  <si>
+    <t>0:0:4</t>
+  </si>
+  <si>
+    <t>1:1:5</t>
+  </si>
+  <si>
+    <t>1:0:3</t>
+  </si>
+  <si>
+    <t>Notea City</t>
+  </si>
+  <si>
+    <t>1:0:2</t>
+  </si>
+  <si>
+    <t>1:1:2</t>
+  </si>
+  <si>
+    <t>2:0:1</t>
+  </si>
+  <si>
+    <t>2:2:1</t>
+  </si>
+  <si>
+    <t>3:2:1</t>
+  </si>
+  <si>
+    <t>3:3:1</t>
   </si>
 </sst>
 </file>
@@ -756,7 +1317,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Baumann Michael" refreshedDate="43297.416609722219" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="64">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Baumann Michael" refreshedDate="43305.453090740739" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="99">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -771,8 +1332,8 @@
       <sharedItems containsBlank="1" count="9">
         <s v="SunAlliance"/>
         <m/>
+        <s v="GLOBE"/>
         <s v="HeavyJET"/>
-        <s v="GLOBE"/>
         <s v="OpenWorld"/>
         <s v="Max Baker"/>
         <s v="InterTeam"/>
@@ -784,7 +1345,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Homebase" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Money" numFmtId="43">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1000000000" maxValue="1000000000"/>
@@ -814,16 +1375,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="64">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="99">
   <r>
     <s v="KH"/>
     <s v="Kranich Air"/>
     <x v="0"/>
-    <s v="DE"/>
+    <m/>
     <s v="FRA"/>
     <n v="1000000000"/>
     <n v="100"/>
-    <s v="FRA;MUC;DUS"/>
+    <s v="MUC;DUS"/>
     <s v="1:1:1"/>
     <s v="80"/>
     <s v="737MAX;A320;B74;A380"/>
@@ -832,11 +1393,11 @@
     <s v="KHT"/>
     <s v="Kranich Town"/>
     <x v="0"/>
-    <s v="DE"/>
+    <m/>
     <s v="DUS"/>
     <n v="1000000000"/>
     <n v="60"/>
-    <s v="DUS;MUC"/>
+    <s v="MUC"/>
     <s v="0:7:2"/>
     <s v="55"/>
     <s v="CRJ;A320"/>
@@ -845,8 +1406,8 @@
     <s v="AHB"/>
     <s v="Air Hamburg"/>
     <x v="1"/>
-    <s v="DE"/>
-    <m/>
+    <m/>
+    <s v="HAM"/>
     <m/>
     <m/>
     <m/>
@@ -858,7 +1419,7 @@
     <s v="LKS"/>
     <s v="Luftikus"/>
     <x v="1"/>
-    <s v="DE"/>
+    <m/>
     <s v="TXL"/>
     <m/>
     <m/>
@@ -871,8 +1432,21 @@
     <s v="UAR"/>
     <s v="UrlaubsAIr"/>
     <x v="1"/>
-    <s v="DE"/>
+    <m/>
     <s v="CGN"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="PAN"/>
+    <s v="PanEurope"/>
+    <x v="2"/>
+    <m/>
+    <s v="MUC"/>
     <m/>
     <m/>
     <m/>
@@ -883,7 +1457,7 @@
   <r>
     <s v="HJA"/>
     <s v="Heavy Jet Austria"/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <s v="VIE"/>
     <m/>
@@ -909,7 +1483,7 @@
   <r>
     <s v="SEM"/>
     <s v="Sennamotion"/>
-    <x v="3"/>
+    <x v="2"/>
     <m/>
     <s v="VIE"/>
     <m/>
@@ -923,7 +1497,7 @@
     <s v="BLN"/>
     <s v="Beeline"/>
     <x v="4"/>
-    <s v="BE"/>
+    <m/>
     <s v="BRU"/>
     <m/>
     <m/>
@@ -935,8 +1509,8 @@
   <r>
     <s v="HJB"/>
     <s v="Heavy Jet Belgium"/>
-    <x v="2"/>
-    <s v="BE"/>
+    <x v="3"/>
+    <m/>
     <s v="BRU"/>
     <m/>
     <m/>
@@ -949,8 +1523,8 @@
     <s v="VIA"/>
     <s v="VIAair"/>
     <x v="1"/>
-    <s v="Bulgarien"/>
-    <m/>
+    <m/>
+    <s v="SOF"/>
     <m/>
     <m/>
     <m/>
@@ -962,11 +1536,11 @@
     <s v="CRO"/>
     <s v="Croatian"/>
     <x v="0"/>
-    <s v="Croatia"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <m/>
+    <s v="ZAG"/>
+    <m/>
+    <m/>
+    <s v="ZAG;DBV"/>
     <m/>
     <m/>
     <m/>
@@ -988,11 +1562,11 @@
     <s v="PTI"/>
     <s v="PropTime"/>
     <x v="4"/>
-    <s v="Dänemark"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <m/>
+    <s v="CPH"/>
+    <m/>
+    <m/>
+    <s v="CPH;AAL"/>
     <m/>
     <m/>
     <m/>
@@ -1000,9 +1574,9 @@
   <r>
     <s v="OSA"/>
     <s v="Odessia Lines"/>
-    <x v="3"/>
-    <s v="Dänemark"/>
-    <m/>
+    <x v="2"/>
+    <m/>
+    <s v="AAL"/>
     <m/>
     <m/>
     <m/>
@@ -1014,8 +1588,8 @@
     <s v="MBS"/>
     <s v="Max Baker Scandinavia"/>
     <x v="5"/>
-    <s v="Dänemark"/>
-    <m/>
+    <m/>
+    <s v="CPH"/>
     <m/>
     <m/>
     <m/>
@@ -1027,11 +1601,11 @@
     <s v="STK"/>
     <s v="Southica"/>
     <x v="1"/>
-    <s v="Italien"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <m/>
+    <s v="PMO"/>
+    <m/>
+    <m/>
+    <s v="PMO;FCO;MXP"/>
     <m/>
     <m/>
     <m/>
@@ -1040,8 +1614,8 @@
     <s v="LLA"/>
     <s v="Lapland Air"/>
     <x v="0"/>
-    <s v="Finnland"/>
-    <m/>
+    <m/>
+    <s v="HEL"/>
     <m/>
     <m/>
     <m/>
@@ -1052,12 +1626,12 @@
   <r>
     <s v="AAG"/>
     <s v="Air Agile"/>
-    <x v="3"/>
-    <s v="Paris Orly?"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="2"/>
+    <m/>
+    <s v="CDG"/>
+    <m/>
+    <m/>
+    <s v="CDG;MRS"/>
     <m/>
     <m/>
     <m/>
@@ -1066,11 +1640,11 @@
     <s v="API"/>
     <s v="Air Paris"/>
     <x v="6"/>
-    <s v="Paris Orly?"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <m/>
+    <s v="CDG"/>
+    <m/>
+    <m/>
+    <s v="BSL"/>
     <m/>
     <m/>
     <m/>
@@ -1079,11 +1653,11 @@
     <s v="CRA"/>
     <s v="Cross Atlantique"/>
     <x v="4"/>
-    <s v="der andere in Paris"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <m/>
+    <s v="ORY"/>
+    <m/>
+    <m/>
+    <s v="LYS"/>
     <m/>
     <m/>
     <m/>
@@ -1091,12 +1665,12 @@
   <r>
     <s v="GS"/>
     <s v="Greek Star"/>
-    <x v="3"/>
+    <x v="2"/>
     <s v="Athen"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="ATH"/>
+    <m/>
+    <m/>
+    <s v="HER"/>
     <m/>
     <m/>
     <m/>
@@ -1106,7 +1680,7 @@
     <s v="SaveJet"/>
     <x v="1"/>
     <s v="Athen"/>
-    <m/>
+    <s v="ATH"/>
     <m/>
     <m/>
     <m/>
@@ -1132,7 +1706,7 @@
     <s v="Cloverleaf Air"/>
     <x v="4"/>
     <s v="Dublin"/>
-    <m/>
+    <s v="DUB"/>
     <m/>
     <m/>
     <m/>
@@ -1145,7 +1719,7 @@
     <s v="Air Rynolds"/>
     <x v="1"/>
     <s v="Dublin"/>
-    <m/>
+    <s v="DUB"/>
     <m/>
     <m/>
     <m/>
@@ -1155,13 +1729,13 @@
   </r>
   <r>
     <s v="ALA"/>
-    <s v="Over the Albs"/>
+    <s v="Over the Alps"/>
     <x v="0"/>
     <s v="Italy"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="VCE"/>
+    <m/>
+    <m/>
+    <s v="LIN"/>
     <m/>
     <m/>
     <m/>
@@ -1171,10 +1745,10 @@
     <s v="AbruzzoLines"/>
     <x v="4"/>
     <s v="Italy"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="PSA"/>
+    <m/>
+    <m/>
+    <s v="FCO"/>
     <m/>
     <m/>
     <m/>
@@ -1223,7 +1797,7 @@
     <s v="Exit Air"/>
     <x v="0"/>
     <s v="Warschau"/>
-    <m/>
+    <s v="WAW"/>
     <m/>
     <m/>
     <m/>
@@ -1236,20 +1810,7 @@
     <s v="Max Baker Poland"/>
     <x v="5"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="TA"/>
-    <s v="Transportes Aéreos"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <s v="POZ"/>
     <m/>
     <m/>
     <m/>
@@ -1275,7 +1836,7 @@
     <s v="Aeriene Române"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <s v="BKR"/>
     <m/>
     <m/>
     <m/>
@@ -1286,22 +1847,9 @@
   <r>
     <s v="AUR"/>
     <s v="Auris Aviation"/>
-    <x v="3"/>
+    <x v="2"/>
     <m/>
     <s v="MAD"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="CAN"/>
-    <s v="Canarian Airlines"/>
-    <x v="1"/>
-    <m/>
-    <m/>
     <m/>
     <m/>
     <m/>
@@ -1338,9 +1886,9 @@
   <r>
     <s v="HSE"/>
     <s v="High Sweden"/>
-    <x v="3"/>
+    <x v="2"/>
     <s v="Schweden"/>
-    <m/>
+    <s v="ARN"/>
     <m/>
     <m/>
     <m/>
@@ -1353,10 +1901,10 @@
     <s v="Decair"/>
     <x v="1"/>
     <s v="Schweden"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="ARN"/>
+    <m/>
+    <m/>
+    <s v="MMX"/>
     <m/>
     <m/>
     <m/>
@@ -1366,7 +1914,7 @@
     <s v="Max Baker Scandinavia"/>
     <x v="5"/>
     <s v="Schweden"/>
-    <m/>
+    <s v="MMX"/>
     <m/>
     <m/>
     <m/>
@@ -1382,7 +1930,7 @@
     <s v="LHR"/>
     <m/>
     <m/>
-    <m/>
+    <s v="MAN,EDI"/>
     <m/>
     <m/>
     <m/>
@@ -1395,7 +1943,7 @@
     <s v="LHR"/>
     <m/>
     <m/>
-    <m/>
+    <s v="MAN"/>
     <m/>
     <m/>
     <m/>
@@ -1403,12 +1951,12 @@
   <r>
     <s v="HJB"/>
     <s v="Heavy Jet Britain"/>
-    <x v="2"/>
+    <x v="3"/>
     <s v="Gattwick"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="LGW"/>
+    <m/>
+    <m/>
+    <s v="ABZ"/>
     <m/>
     <m/>
     <m/>
@@ -1421,7 +1969,7 @@
     <s v="LHR"/>
     <m/>
     <m/>
-    <m/>
+    <s v="BFS;GLA"/>
     <m/>
     <m/>
     <m/>
@@ -1431,7 +1979,7 @@
     <s v="Max Baker Britain"/>
     <x v="5"/>
     <m/>
-    <m/>
+    <s v="NWI"/>
     <m/>
     <m/>
     <m/>
@@ -1444,7 +1992,7 @@
     <s v="Gesyr"/>
     <x v="4"/>
     <s v="Iceland"/>
-    <m/>
+    <s v="KEF"/>
     <m/>
     <m/>
     <m/>
@@ -1455,9 +2003,9 @@
   <r>
     <s v="HJS"/>
     <s v="Heavy Jet Switzerland"/>
-    <x v="2"/>
+    <x v="3"/>
     <s v="Zürich"/>
-    <m/>
+    <s v="ZRH"/>
     <m/>
     <m/>
     <m/>
@@ -1470,7 +2018,7 @@
     <s v="Geneva Connect"/>
     <x v="1"/>
     <s v="Genf"/>
-    <m/>
+    <s v="GVA"/>
     <m/>
     <m/>
     <m/>
@@ -1483,7 +2031,7 @@
     <s v="Byzantian"/>
     <x v="4"/>
     <s v="Istanbul"/>
-    <m/>
+    <s v="IST"/>
     <m/>
     <m/>
     <m/>
@@ -1496,10 +2044,10 @@
     <s v="Cappadocia Air"/>
     <x v="0"/>
     <s v="Istanbul"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="AYT"/>
+    <m/>
+    <m/>
+    <s v="ADB"/>
     <m/>
     <m/>
     <m/>
@@ -1509,7 +2057,7 @@
     <s v="Bien Air"/>
     <x v="6"/>
     <s v="Argentinien"/>
-    <m/>
+    <s v="EZE"/>
     <m/>
     <m/>
     <m/>
@@ -1522,7 +2070,7 @@
     <s v="Caribian"/>
     <x v="6"/>
     <s v="Bahamas"/>
-    <m/>
+    <s v="SSA"/>
     <m/>
     <m/>
     <m/>
@@ -1535,10 +2083,10 @@
     <s v="Zeuss Air"/>
     <x v="7"/>
     <s v="Brasilia"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="GRU"/>
+    <m/>
+    <m/>
+    <s v="GIG"/>
     <m/>
     <m/>
     <m/>
@@ -1548,10 +2096,10 @@
     <s v="Viracoposoli"/>
     <x v="4"/>
     <s v="Brasilia"/>
-    <s v="VPC"/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="BSB"/>
+    <m/>
+    <m/>
+    <s v="CGH"/>
     <m/>
     <m/>
     <m/>
@@ -1561,10 +2109,10 @@
     <s v="Maple Air"/>
     <x v="0"/>
     <s v="Toronto"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="YYZ"/>
+    <m/>
+    <m/>
+    <s v="YYC"/>
     <m/>
     <m/>
     <m/>
@@ -1574,10 +2122,10 @@
     <s v="Maple Air Express"/>
     <x v="0"/>
     <s v="Vancouver"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="YVR"/>
+    <m/>
+    <m/>
+    <s v="YUL"/>
     <m/>
     <m/>
     <m/>
@@ -1585,12 +2133,12 @@
   <r>
     <s v="ONT"/>
     <s v="Ontario International"/>
-    <x v="3"/>
+    <x v="2"/>
     <s v="Onatrio"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="YOW"/>
+    <m/>
+    <m/>
+    <s v="YHZ;YWG"/>
     <m/>
     <m/>
     <m/>
@@ -1600,7 +2148,7 @@
     <s v="Forrest Air"/>
     <x v="7"/>
     <s v="Toronto"/>
-    <m/>
+    <s v="YUL"/>
     <m/>
     <m/>
     <m/>
@@ -1611,9 +2159,9 @@
   <r>
     <s v="AST"/>
     <s v="Air Astroid Chile"/>
-    <x v="3"/>
+    <x v="2"/>
     <s v="Chile"/>
-    <m/>
+    <s v="SCL"/>
     <m/>
     <m/>
     <m/>
@@ -1625,21 +2173,489 @@
     <s v="NEC"/>
     <s v="Network Colombia"/>
     <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="CRU"/>
-    <s v="Cool Runnings Air"/>
+    <s v="Kolumbien"/>
+    <s v="BOG"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="MEX"/>
+    <s v="Mexicaan Airways"/>
+    <x v="4"/>
+    <s v="Mexico"/>
+    <s v="MEX"/>
+    <m/>
+    <m/>
+    <s v="ACA"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="MEC"/>
+    <s v="Mexicaan Connect"/>
+    <x v="4"/>
+    <s v="Mexico"/>
+    <s v="CUN"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="BAJ"/>
+    <s v="Bajio Air"/>
+    <x v="2"/>
+    <s v="Mexico"/>
+    <s v="MEX"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="CAM"/>
+    <s v="FlyCampeche"/>
     <x v="7"/>
-    <s v="Jamaica"/>
-    <m/>
+    <s v="Mexico"/>
+    <s v="CUN"/>
+    <m/>
+    <m/>
+    <s v="MTY"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="APC"/>
+    <s v="Palantic"/>
+    <x v="7"/>
+    <s v="Panama"/>
+    <s v="ECP"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="BEA"/>
+    <s v="BEAM "/>
+    <x v="7"/>
+    <s v="Venezuela"/>
+    <s v="VER"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="ICE"/>
+    <s v="Fly on Ice"/>
+    <x v="7"/>
+    <s v="USA"/>
+    <s v="DEN"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="SLA"/>
+    <s v="States Airlines"/>
+    <x v="0"/>
+    <s v="USA"/>
+    <s v="JFK"/>
+    <m/>
+    <m/>
+    <s v="LAX"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="SLR"/>
+    <s v="States Regional"/>
+    <x v="0"/>
+    <s v="USA"/>
+    <s v="DFW"/>
+    <m/>
+    <m/>
+    <s v="IAD"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="THA"/>
+    <s v="Theta Airlines"/>
+    <x v="2"/>
+    <s v="USA"/>
+    <s v="ATL"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="THR"/>
+    <s v="Theta Regional"/>
+    <x v="2"/>
+    <s v="USA"/>
+    <s v="ATL"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="THW"/>
+    <s v="Theta West"/>
+    <x v="2"/>
+    <s v="USA"/>
+    <s v="SFO"/>
+    <m/>
+    <m/>
+    <s v="DFW"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="JTR"/>
+    <s v="Jet Red"/>
+    <x v="4"/>
+    <s v="USA"/>
+    <s v="JFK"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="JTR"/>
+    <s v="Jet Red Connect"/>
+    <x v="4"/>
+    <s v="Phoenix"/>
+    <s v="DEN"/>
+    <m/>
+    <m/>
+    <s v="DTW"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="SWI"/>
+    <s v="South Wings"/>
+    <x v="7"/>
+    <m/>
+    <s v="MIA"/>
+    <m/>
+    <m/>
+    <s v="PHX"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="GHO"/>
+    <s v="Ghost Air"/>
+    <x v="6"/>
+    <s v="La Guardia"/>
+    <s v="LGA"/>
+    <m/>
+    <m/>
+    <s v="SEA;FLL"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="GHO"/>
+    <s v="Ghost Air Connect"/>
+    <x v="6"/>
+    <s v="La Guardia"/>
+    <s v="CLT"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AMO"/>
+    <s v="Air Montana"/>
+    <x v="6"/>
+    <s v="Montana"/>
+    <s v="SGF"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="PAI"/>
+    <s v="Partner Air by Theta"/>
+    <x v="2"/>
+    <s v="Boise"/>
+    <s v="BOI"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="HAI"/>
+    <s v="Hoover Air"/>
+    <x v="1"/>
+    <s v="Vegas"/>
+    <s v="LAS"/>
+    <m/>
+    <m/>
+    <s v="MCO"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="SWA"/>
+    <s v="Swampland"/>
+    <x v="4"/>
+    <s v="Orlando"/>
+    <s v="MCO"/>
+    <m/>
+    <m/>
+    <s v="IAH"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="NEA"/>
+    <s v="North East Airways"/>
+    <x v="1"/>
+    <m/>
+    <s v="BOS"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="URA"/>
+    <s v="UraLines"/>
+    <x v="0"/>
+    <s v="SVO"/>
+    <s v="SVO"/>
+    <m/>
+    <m/>
+    <s v="VVO,KRR"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="PFC"/>
+    <s v="Notea Club"/>
+    <x v="4"/>
+    <s v="DME"/>
+    <s v="DME"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="PFD"/>
+    <s v="Notea Connect"/>
+    <x v="4"/>
+    <s v="SVX"/>
+    <s v="SVX"/>
+    <m/>
+    <m/>
+    <s v="UFA;KRR"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="MEA"/>
+    <s v="Middle Earth Airlines"/>
+    <x v="6"/>
+    <m/>
+    <s v="AKL"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="BAI"/>
+    <s v="Bahrain International"/>
+    <x v="4"/>
+    <s v="Bahrein"/>
+    <s v="BAH"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="JPN"/>
+    <s v="JAir"/>
+    <x v="0"/>
+    <s v="Osaka"/>
+    <s v="KIX"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="ADJ"/>
+    <s v="All Dojo"/>
+    <x v="2"/>
+    <s v="Tokio H"/>
+    <s v="HND"/>
+    <m/>
+    <m/>
+    <s v="CTS"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="SUM"/>
+    <s v="Summer Airlines"/>
+    <x v="4"/>
+    <s v="Tokio N"/>
+    <s v="NRT"/>
+    <m/>
+    <m/>
+    <s v="ITM"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="CIM"/>
+    <s v="Cimanon Wings"/>
+    <x v="4"/>
+    <s v="Kyoto"/>
+    <s v="ITM"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="TCJ"/>
+    <s v="Transoceanic"/>
+    <x v="6"/>
+    <s v="Tokio H"/>
+    <s v="HND"/>
+    <m/>
+    <m/>
+    <s v="ITM"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="ASW"/>
+    <s v="Asia Wings"/>
+    <x v="0"/>
+    <s v="Seoul"/>
+    <s v="ICN"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="EST"/>
+    <s v="Eastern"/>
+    <x v="2"/>
+    <s v="Seoul"/>
+    <s v="ICN"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="PCF"/>
+    <s v="Pacifica"/>
+    <x v="1"/>
+    <s v="Manila"/>
+    <s v="MNL"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="FDB"/>
+    <s v="FlyDubai"/>
+    <x v="2"/>
+    <s v="Dubai"/>
+    <s v="DXB"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="ETA"/>
+    <s v="Eternal Flame Airways"/>
+    <x v="0"/>
+    <s v="Abu dhabi"/>
+    <s v="AUH"/>
     <m/>
     <m/>
     <m/>
@@ -1651,15 +2667,15 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="10">
+        <item x="2"/>
         <item x="3"/>
-        <item x="2"/>
         <item x="4"/>
         <item x="0"/>
         <item x="1"/>
@@ -1696,25 +2712,25 @@
       <x v="3"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="2"/>
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i>
       <x v="6"/>
     </i>
     <i>
-      <x/>
+      <x v="8"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -1736,8 +2752,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:K72" totalsRowShown="0">
-  <autoFilter ref="A2:K72"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:K101" totalsRowShown="0">
+  <autoFilter ref="A2:K101"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Name"/>
@@ -2021,10 +3037,10 @@
   <dimension ref="A3:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
@@ -2032,82 +3048,82 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B5" s="5">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B8" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="B9" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2117,35 +3133,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="2" customWidth="1"/>
     <col min="11" max="11" width="39.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
+    <row r="1" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
       <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2153,10 +3166,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -2171,16 +3184,16 @@
         <v>8</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2188,10 +3201,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -2203,33 +3213,30 @@
         <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>290</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
       </c>
       <c r="F4" s="1">
         <v>1000000000</v>
@@ -2238,814 +3245,1129 @@
         <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>237</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>363</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="I9" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="E13" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
+      <c r="I13" s="2" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>281</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+      <c r="H15" t="s">
+        <v>360</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>283</v>
+      </c>
+      <c r="H17" t="s">
+        <v>284</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>284</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="E19" t="s">
+        <v>283</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>285</v>
+      </c>
+      <c r="H20" t="s">
+        <v>361</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>287</v>
+      </c>
+      <c r="H22" t="s">
+        <v>362</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>71</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B23" t="s">
         <v>72</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="s">
+        <v>287</v>
+      </c>
+      <c r="H23" t="s">
+        <v>289</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>73</v>
       </c>
-      <c r="D18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B24" t="s">
         <v>74</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" t="s">
-        <v>89</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>288</v>
+      </c>
+      <c r="H24" t="s">
+        <v>291</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>292</v>
+      </c>
+      <c r="H25" t="s">
+        <v>293</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
+        <v>292</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="12.8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" t="s">
+        <v>294</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" t="s">
+        <v>294</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>295</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" t="s">
+        <v>296</v>
+      </c>
+      <c r="H30" t="s">
+        <v>297</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" t="s">
+        <v>298</v>
+      </c>
+      <c r="H31" t="s">
+        <v>299</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>92</v>
       </c>
-      <c r="B25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" t="s">
+        <v>300</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
+        <v>301</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" t="s">
+        <v>302</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" t="s">
+        <v>302</v>
+      </c>
+      <c r="H43" t="s">
+        <v>303</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" t="s">
+        <v>303</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" t="s">
+        <v>306</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" t="s">
+        <v>127</v>
+      </c>
+      <c r="H46" t="s">
+        <v>305</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" t="s">
+        <v>304</v>
+      </c>
+      <c r="H47" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="I47" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>127</v>
+      </c>
+      <c r="H48" t="s">
+        <v>307</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" t="s">
+        <v>308</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" t="s">
+        <v>309</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" t="s">
+        <v>310</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" t="s">
+        <v>311</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" t="s">
+        <v>312</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" t="s">
+        <v>313</v>
+      </c>
+      <c r="H54" t="s">
+        <v>314</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="D55" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" t="s">
+        <v>315</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D56" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" t="s">
+        <v>316</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" t="s">
+        <v>317</v>
+      </c>
+      <c r="H57" t="s">
+        <v>319</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" t="s">
+        <v>318</v>
+      </c>
+      <c r="H58" t="s">
+        <v>320</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" t="s">
+        <v>321</v>
+      </c>
+      <c r="H59" t="s">
+        <v>322</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>166</v>
+      </c>
+      <c r="E60" t="s">
+        <v>323</v>
+      </c>
+      <c r="H60" t="s">
+        <v>326</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" t="s">
+        <v>324</v>
+      </c>
+      <c r="H61" t="s">
+        <v>325</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" t="s">
+        <v>326</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>172</v>
+      </c>
+      <c r="B63" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" t="s">
+        <v>174</v>
+      </c>
+      <c r="E63" t="s">
+        <v>327</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>127</v>
-      </c>
-      <c r="B39" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>137</v>
-      </c>
-      <c r="B43" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>140</v>
-      </c>
-      <c r="B44" t="s">
-        <v>141</v>
-      </c>
-      <c r="D44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>142</v>
-      </c>
-      <c r="B45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>143</v>
-      </c>
-      <c r="B46" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" t="s">
-        <v>112</v>
-      </c>
-      <c r="E46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>146</v>
-      </c>
-      <c r="B47" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>148</v>
-      </c>
-      <c r="C48" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>149</v>
-      </c>
-      <c r="B49" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>152</v>
-      </c>
-      <c r="B50" t="s">
-        <v>153</v>
-      </c>
-      <c r="C50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>154</v>
-      </c>
-      <c r="B51" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>157</v>
-      </c>
-      <c r="B52" t="s">
-        <v>158</v>
-      </c>
-      <c r="C52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>160</v>
-      </c>
-      <c r="B53" t="s">
-        <v>161</v>
-      </c>
-      <c r="D53" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>163</v>
-      </c>
-      <c r="B54" t="s">
-        <v>164</v>
-      </c>
-      <c r="C54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>166</v>
-      </c>
-      <c r="B55" t="s">
-        <v>167</v>
-      </c>
-      <c r="C55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>168</v>
-      </c>
-      <c r="B56" t="s">
-        <v>169</v>
-      </c>
-      <c r="C56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D56" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>171</v>
-      </c>
-      <c r="B57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C57" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>174</v>
-      </c>
-      <c r="B58" t="s">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>175</v>
       </c>
-      <c r="C58" t="s">
-        <v>199</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="B64" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>179</v>
-      </c>
-      <c r="B59" t="s">
-        <v>177</v>
-      </c>
-      <c r="C59" t="s">
-        <v>44</v>
-      </c>
-      <c r="D59" t="s">
-        <v>176</v>
-      </c>
-      <c r="E59" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>180</v>
-      </c>
-      <c r="B60" t="s">
-        <v>181</v>
-      </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>183</v>
-      </c>
-      <c r="B61" t="s">
-        <v>184</v>
-      </c>
-      <c r="C61" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>186</v>
-      </c>
-      <c r="B62" t="s">
-        <v>187</v>
-      </c>
-      <c r="C62" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>188</v>
-      </c>
-      <c r="B63" t="s">
-        <v>189</v>
-      </c>
-      <c r="C63" t="s">
-        <v>199</v>
-      </c>
-      <c r="D63" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>191</v>
-      </c>
-      <c r="B64" t="s">
-        <v>192</v>
       </c>
       <c r="C64" t="s">
         <v>40</v>
@@ -3053,117 +4375,778 @@
       <c r="D64" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>328</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" t="s">
+        <v>180</v>
+      </c>
+      <c r="E65" t="s">
+        <v>178</v>
+      </c>
+      <c r="H65" t="s">
+        <v>331</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>181</v>
+      </c>
+      <c r="B66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" t="s">
+        <v>180</v>
+      </c>
+      <c r="E66" t="s">
+        <v>329</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" t="s">
+        <v>180</v>
+      </c>
+      <c r="E67" t="s">
+        <v>178</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" t="s">
+        <v>177</v>
+      </c>
+      <c r="D68" t="s">
+        <v>180</v>
+      </c>
+      <c r="E68" t="s">
+        <v>329</v>
+      </c>
+      <c r="H68" t="s">
+        <v>330</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" t="s">
+        <v>177</v>
+      </c>
+      <c r="D69" t="s">
+        <v>189</v>
+      </c>
+      <c r="E69" t="s">
+        <v>332</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>190</v>
+      </c>
+      <c r="B70" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" t="s">
+        <v>177</v>
+      </c>
+      <c r="D70" t="s">
+        <v>192</v>
+      </c>
+      <c r="E70" t="s">
+        <v>333</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>194</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B71" t="s">
         <v>195</v>
       </c>
-      <c r="C65" t="s">
-        <v>44</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C71" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" t="s">
+        <v>196</v>
+      </c>
+      <c r="E71" t="s">
+        <v>338</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>197</v>
+      </c>
+      <c r="B72" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>196</v>
+      </c>
+      <c r="E72" t="s">
+        <v>204</v>
+      </c>
+      <c r="H72" t="s">
+        <v>345</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>196</v>
+      </c>
+      <c r="E73" t="s">
+        <v>205</v>
+      </c>
+      <c r="H73" t="s">
+        <v>390</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>199</v>
+      </c>
+      <c r="B74" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E74" t="s">
+        <v>201</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>206</v>
+      </c>
+      <c r="B75" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" t="s">
+        <v>196</v>
+      </c>
+      <c r="E75" t="s">
+        <v>201</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>209</v>
+      </c>
+      <c r="B76" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" t="s">
+        <v>196</v>
+      </c>
+      <c r="E76" t="s">
+        <v>210</v>
+      </c>
+      <c r="H76" t="s">
+        <v>205</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>211</v>
+      </c>
+      <c r="B77" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" t="s">
+        <v>196</v>
+      </c>
+      <c r="E77" t="s">
+        <v>204</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>211</v>
+      </c>
+      <c r="B78" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" t="s">
+        <v>214</v>
+      </c>
+      <c r="E78" t="s">
+        <v>338</v>
+      </c>
+      <c r="H78" t="s">
+        <v>347</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>196</v>
-      </c>
-      <c r="B66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C66" t="s">
-        <v>199</v>
-      </c>
-      <c r="D66" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>200</v>
-      </c>
-      <c r="B67" t="s">
-        <v>201</v>
-      </c>
-      <c r="C67" t="s">
-        <v>44</v>
-      </c>
-      <c r="D67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>203</v>
-      </c>
-      <c r="B68" t="s">
-        <v>204</v>
-      </c>
-      <c r="C68" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>205</v>
-      </c>
-      <c r="B69" t="s">
-        <v>206</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B79" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" t="s">
+        <v>177</v>
+      </c>
+      <c r="E79" t="s">
+        <v>334</v>
+      </c>
+      <c r="H79" t="s">
+        <v>335</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>219</v>
+      </c>
+      <c r="B80" t="s">
+        <v>220</v>
+      </c>
+      <c r="C80" t="s">
+        <v>98</v>
+      </c>
+      <c r="D80" t="s">
+        <v>221</v>
+      </c>
+      <c r="E80" t="s">
+        <v>336</v>
+      </c>
+      <c r="H80" t="s">
+        <v>346</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>219</v>
+      </c>
+      <c r="B81" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" t="s">
+        <v>221</v>
+      </c>
+      <c r="E81" t="s">
+        <v>337</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>217</v>
+      </c>
+      <c r="B82" t="s">
+        <v>218</v>
+      </c>
+      <c r="C82" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" t="s">
+        <v>223</v>
+      </c>
+      <c r="E82" t="s">
+        <v>342</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>224</v>
+      </c>
+      <c r="B83" t="s">
+        <v>225</v>
+      </c>
+      <c r="C83" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" t="s">
+        <v>226</v>
+      </c>
+      <c r="E83" t="s">
+        <v>341</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" t="s">
+        <v>228</v>
+      </c>
+      <c r="D84" t="s">
+        <v>229</v>
+      </c>
+      <c r="E84" t="s">
+        <v>339</v>
+      </c>
+      <c r="H84" t="s">
+        <v>340</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>230</v>
+      </c>
+      <c r="B85" t="s">
+        <v>231</v>
+      </c>
+      <c r="C85" t="s">
         <v>40</v>
       </c>
-      <c r="D69" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>207</v>
-      </c>
-      <c r="B70" t="s">
-        <v>208</v>
-      </c>
-      <c r="C70" t="s">
-        <v>199</v>
-      </c>
-      <c r="D70" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>209</v>
-      </c>
-      <c r="B71" t="s">
-        <v>210</v>
-      </c>
-      <c r="C71" t="s">
-        <v>199</v>
-      </c>
-      <c r="D71" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>212</v>
-      </c>
-      <c r="B72" t="s">
-        <v>213</v>
-      </c>
-      <c r="C72" t="s">
-        <v>199</v>
-      </c>
-      <c r="D72" t="s">
-        <v>214</v>
+      <c r="D85" t="s">
+        <v>232</v>
+      </c>
+      <c r="E85" t="s">
+        <v>340</v>
+      </c>
+      <c r="H85" t="s">
+        <v>343</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>233</v>
+      </c>
+      <c r="B86" t="s">
+        <v>234</v>
+      </c>
+      <c r="E86" t="s">
+        <v>344</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>238</v>
+      </c>
+      <c r="B87" t="s">
+        <v>239</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>240</v>
+      </c>
+      <c r="E87" t="s">
+        <v>240</v>
+      </c>
+      <c r="H87" t="s">
+        <v>349</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>241</v>
+      </c>
+      <c r="B88" t="s">
+        <v>278</v>
+      </c>
+      <c r="C88" t="s">
+        <v>40</v>
+      </c>
+      <c r="D88" t="s">
+        <v>242</v>
+      </c>
+      <c r="E88" t="s">
+        <v>242</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>243</v>
+      </c>
+      <c r="B89" t="s">
+        <v>396</v>
+      </c>
+      <c r="C89" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" t="s">
+        <v>279</v>
+      </c>
+      <c r="E89" t="s">
+        <v>279</v>
+      </c>
+      <c r="H89" t="s">
+        <v>348</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>244</v>
+      </c>
+      <c r="B90" t="s">
+        <v>245</v>
+      </c>
+      <c r="C90" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" t="s">
+        <v>246</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>247</v>
+      </c>
+      <c r="B91" t="s">
+        <v>248</v>
+      </c>
+      <c r="C91" t="s">
+        <v>40</v>
+      </c>
+      <c r="D91" t="s">
+        <v>249</v>
+      </c>
+      <c r="E91" t="s">
+        <v>350</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>250</v>
+      </c>
+      <c r="B92" t="s">
+        <v>251</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>252</v>
+      </c>
+      <c r="E92" t="s">
+        <v>354</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>260</v>
+      </c>
+      <c r="B93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C93" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" t="s">
+        <v>253</v>
+      </c>
+      <c r="E93" t="s">
+        <v>352</v>
+      </c>
+      <c r="H93" t="s">
+        <v>355</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>254</v>
+      </c>
+      <c r="B94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C94" t="s">
+        <v>40</v>
+      </c>
+      <c r="D94" t="s">
+        <v>256</v>
+      </c>
+      <c r="E94" t="s">
+        <v>353</v>
+      </c>
+      <c r="H94" t="s">
+        <v>351</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>257</v>
+      </c>
+      <c r="B95" t="s">
+        <v>258</v>
+      </c>
+      <c r="C95" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" t="s">
+        <v>261</v>
+      </c>
+      <c r="E95" t="s">
+        <v>351</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>262</v>
+      </c>
+      <c r="B96" t="s">
+        <v>263</v>
+      </c>
+      <c r="C96" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" t="s">
+        <v>253</v>
+      </c>
+      <c r="E96" t="s">
+        <v>352</v>
+      </c>
+      <c r="H96" t="s">
+        <v>351</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>264</v>
+      </c>
+      <c r="B97" t="s">
+        <v>265</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" t="s">
+        <v>268</v>
+      </c>
+      <c r="E97" t="s">
+        <v>356</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>266</v>
+      </c>
+      <c r="B98" t="s">
+        <v>267</v>
+      </c>
+      <c r="C98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" t="s">
+        <v>268</v>
+      </c>
+      <c r="E98" t="s">
+        <v>356</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>269</v>
+      </c>
+      <c r="B99" t="s">
+        <v>270</v>
+      </c>
+      <c r="D99" t="s">
+        <v>271</v>
+      </c>
+      <c r="E99" t="s">
+        <v>357</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>272</v>
+      </c>
+      <c r="B100" t="s">
+        <v>273</v>
+      </c>
+      <c r="C100" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" t="s">
+        <v>274</v>
+      </c>
+      <c r="E100" t="s">
+        <v>358</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>275</v>
+      </c>
+      <c r="B101" t="s">
+        <v>276</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" t="s">
+        <v>277</v>
+      </c>
+      <c r="E101" t="s">
+        <v>359</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -3181,7 +5164,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AirCoonUWP/Data/aIRLINE.xlsx
+++ b/AirCoonUWP/Data/aIRLINE.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="477">
   <si>
     <t>Name</t>
   </si>
@@ -79,24 +79,15 @@
     <t>Qualitylevel</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>KHT</t>
   </si>
   <si>
     <t>Kranich Town</t>
   </si>
   <si>
-    <t>737MAX;A320;B74;A380</t>
-  </si>
-  <si>
     <t>DUS</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>CRJ;A320</t>
   </si>
   <si>
@@ -1238,6 +1229,237 @@
   </si>
   <si>
     <t>3:3:1</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>ATR;CSeries;B76</t>
+  </si>
+  <si>
+    <t>737NG</t>
+  </si>
+  <si>
+    <t>A330;A320</t>
+  </si>
+  <si>
+    <t>D8;737NG;B74</t>
+  </si>
+  <si>
+    <t>EMB;ERJ</t>
+  </si>
+  <si>
+    <t>737MAX;B74;A380</t>
+  </si>
+  <si>
+    <t>B78;A320NEO</t>
+  </si>
+  <si>
+    <t>SU;TU</t>
+  </si>
+  <si>
+    <t>AN,CSeries</t>
+  </si>
+  <si>
+    <t>CRJ;737MAX</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>A320NEO;D8</t>
+  </si>
+  <si>
+    <t>A380;A320</t>
+  </si>
+  <si>
+    <t>B74;A320;D8</t>
+  </si>
+  <si>
+    <t>737MAX;B76;CRJ</t>
+  </si>
+  <si>
+    <t>CRJ;A330</t>
+  </si>
+  <si>
+    <t>B737</t>
+  </si>
+  <si>
+    <t>A330;737MAX;EMB</t>
+  </si>
+  <si>
+    <t>A320;AN</t>
+  </si>
+  <si>
+    <t>737MAX;B78</t>
+  </si>
+  <si>
+    <t>CRJ</t>
+  </si>
+  <si>
+    <t>B78;737NG;AN</t>
+  </si>
+  <si>
+    <t>A380;737NG;CRJ</t>
+  </si>
+  <si>
+    <t>737MAX;EMB</t>
+  </si>
+  <si>
+    <t>A330;737NG;B78</t>
+  </si>
+  <si>
+    <t>TU;SU</t>
+  </si>
+  <si>
+    <t>B76;373MAX;D8</t>
+  </si>
+  <si>
+    <t>B76;A320;AN</t>
+  </si>
+  <si>
+    <t>A380;A330;737MAX</t>
+  </si>
+  <si>
+    <t>AN;CSeries</t>
+  </si>
+  <si>
+    <t>ATR;A320</t>
+  </si>
+  <si>
+    <t>SU;D8;B74</t>
+  </si>
+  <si>
+    <t>D8;737MAX</t>
+  </si>
+  <si>
+    <t>A330;A320NEO;ATR</t>
+  </si>
+  <si>
+    <t>CRJ;ERJ</t>
+  </si>
+  <si>
+    <t>CRJ;737NG;</t>
+  </si>
+  <si>
+    <t>ATR;TU</t>
+  </si>
+  <si>
+    <t>A320</t>
+  </si>
+  <si>
+    <t>B78,CRJ;A320NEO</t>
+  </si>
+  <si>
+    <t>A320NEO;A330</t>
+  </si>
+  <si>
+    <t>B76;737NG</t>
+  </si>
+  <si>
+    <t>737MAX</t>
+  </si>
+  <si>
+    <t>AV;A320</t>
   </si>
 </sst>
 </file>
@@ -2667,7 +2889,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
@@ -2753,7 +2975,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:K101" totalsRowShown="0">
-  <autoFilter ref="A2:K101"/>
+  <autoFilter ref="A2:K101">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="OpenWorld"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Name"/>
@@ -3048,10 +3276,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3064,7 +3292,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5">
         <v>19</v>
@@ -3072,7 +3300,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5">
         <v>17</v>
@@ -3080,7 +3308,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" s="5">
         <v>14</v>
@@ -3088,7 +3316,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="5">
         <v>13</v>
@@ -3096,7 +3324,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
@@ -3104,7 +3332,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -3112,7 +3340,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5">
         <v>4</v>
@@ -3120,7 +3348,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5">
         <v>99</v>
@@ -3135,8 +3363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
@@ -3169,7 +3397,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -3193,7 +3421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="12.8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3213,30 +3441,30 @@
         <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="12.8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1">
         <v>1000000000</v>
@@ -3245,1908 +3473,2358 @@
         <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="K5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="12.8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="K6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
+      <c r="J7" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="K7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12.8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
+      <c r="J8" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="K8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="K9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K11" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="K13" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="E14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="J14" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>281</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="12.8" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="K15" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12.8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="K16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>280</v>
+      </c>
+      <c r="H17" t="s">
+        <v>281</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>281</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="K18" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>280</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="K19" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>282</v>
+      </c>
+      <c r="H20" t="s">
+        <v>358</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>283</v>
-      </c>
-      <c r="H17" t="s">
-        <v>284</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" t="s">
-        <v>284</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="J20" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="K20" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>64</v>
       </c>
-      <c r="E19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B21" t="s">
         <v>65</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" t="s">
-        <v>285</v>
-      </c>
-      <c r="H20" t="s">
-        <v>361</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="K21" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H22" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="K22" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" t="s">
+        <v>284</v>
+      </c>
+      <c r="H23" t="s">
+        <v>286</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>285</v>
+      </c>
+      <c r="H24" t="s">
+        <v>288</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K24" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>72</v>
       </c>
-      <c r="C23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" t="s">
-        <v>287</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
         <v>289</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="H25" t="s">
+        <v>290</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
         <v>74</v>
       </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" t="s">
-        <v>288</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="E26" t="s">
+        <v>289</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K26" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="12.8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="K27" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" t="s">
         <v>291</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="I28" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K28" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
+        <v>291</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K29" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
         <v>292</v>
-      </c>
-      <c r="H25" t="s">
-        <v>293</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" t="s">
-        <v>292</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="12.8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" t="s">
-        <v>294</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" t="s">
-        <v>294</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" t="s">
-        <v>295</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
+        <v>293</v>
+      </c>
+      <c r="H30" t="s">
+        <v>294</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="K30" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" t="s">
+        <v>295</v>
+      </c>
+      <c r="H31" t="s">
         <v>296</v>
-      </c>
-      <c r="H30" t="s">
-        <v>297</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" t="s">
-        <v>298</v>
-      </c>
-      <c r="H31" t="s">
-        <v>299</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K31" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="K32" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
         <v>95</v>
       </c>
-      <c r="B33" t="s">
+      <c r="E34" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
         <v>99</v>
-      </c>
-      <c r="C33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" t="s">
-        <v>96</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" t="s">
-        <v>102</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
       </c>
       <c r="D35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" t="s">
+        <v>297</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K35" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" t="s">
+        <v>298</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K36" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>103</v>
       </c>
-      <c r="E35" t="s">
-        <v>300</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B37" t="s">
         <v>104</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" t="s">
         <v>105</v>
       </c>
-      <c r="C36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" t="s">
-        <v>301</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="I37" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>106</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>107</v>
-      </c>
-      <c r="C37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" t="s">
-        <v>108</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" t="s">
-        <v>110</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
+        <v>105</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="K38" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>108</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>111</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>112</v>
       </c>
-      <c r="C39" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" t="s">
         <v>113</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="I40" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K40" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>114</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>115</v>
       </c>
-      <c r="C40" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" t="s">
-        <v>116</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" t="s">
-        <v>118</v>
-      </c>
       <c r="E41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="K41" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" t="s">
+        <v>299</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>119</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>120</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" t="s">
+        <v>299</v>
+      </c>
+      <c r="H43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="K43" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" t="s">
+        <v>300</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="K44" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" t="s">
+        <v>303</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" t="s">
+        <v>124</v>
+      </c>
+      <c r="H46" t="s">
+        <v>302</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" t="s">
         <v>36</v>
       </c>
-      <c r="D42" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" t="s">
-        <v>302</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" t="s">
-        <v>302</v>
-      </c>
-      <c r="H43" t="s">
-        <v>303</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" t="s">
-        <v>303</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" t="s">
-        <v>127</v>
-      </c>
-      <c r="H45" t="s">
-        <v>306</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="D47" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" t="s">
+        <v>301</v>
+      </c>
+      <c r="H47" t="s">
+        <v>87</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="K47" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>128</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>129</v>
-      </c>
-      <c r="C46" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" t="s">
-        <v>127</v>
-      </c>
-      <c r="H46" t="s">
-        <v>305</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" t="s">
-        <v>304</v>
-      </c>
-      <c r="H47" t="s">
-        <v>90</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>131</v>
-      </c>
-      <c r="B48" t="s">
-        <v>132</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H48" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K48" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" t="s">
+        <v>305</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="K49" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" t="s">
         <v>134</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" t="s">
         <v>135</v>
       </c>
-      <c r="C49" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
+        <v>306</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K50" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" t="s">
+        <v>307</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="K51" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" t="s">
         <v>308</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>136</v>
-      </c>
-      <c r="B50" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" t="s">
-        <v>138</v>
-      </c>
-      <c r="E50" t="s">
-        <v>309</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>139</v>
-      </c>
-      <c r="B51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" t="s">
-        <v>141</v>
-      </c>
-      <c r="E51" t="s">
-        <v>310</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>142</v>
-      </c>
-      <c r="B52" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" t="s">
-        <v>144</v>
-      </c>
-      <c r="E52" t="s">
-        <v>311</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="K52" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" t="s">
+        <v>309</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K53" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>145</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>146</v>
-      </c>
-      <c r="C53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" t="s">
-        <v>147</v>
-      </c>
-      <c r="E53" t="s">
-        <v>312</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" t="s">
-        <v>149</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" t="s">
+        <v>310</v>
+      </c>
+      <c r="H54" t="s">
+        <v>311</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="K54" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>147</v>
       </c>
-      <c r="E54" t="s">
+      <c r="B55" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" t="s">
+        <v>312</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" t="s">
         <v>313</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I56" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" t="s">
+        <v>155</v>
+      </c>
+      <c r="E57" t="s">
         <v>314</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" t="s">
-        <v>151</v>
-      </c>
-      <c r="C55" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" t="s">
-        <v>152</v>
-      </c>
-      <c r="E55" t="s">
-        <v>315</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" t="s">
-        <v>154</v>
-      </c>
-      <c r="C56" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56" t="s">
-        <v>155</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="H57" t="s">
         <v>316</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" t="s">
-        <v>177</v>
-      </c>
-      <c r="D57" t="s">
-        <v>158</v>
-      </c>
-      <c r="E57" t="s">
-        <v>317</v>
-      </c>
-      <c r="H57" t="s">
-        <v>319</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B58" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" t="s">
+        <v>155</v>
+      </c>
+      <c r="E58" t="s">
+        <v>315</v>
+      </c>
+      <c r="H58" t="s">
+        <v>317</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K58" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" t="s">
         <v>159</v>
-      </c>
-      <c r="C58" t="s">
-        <v>40</v>
-      </c>
-      <c r="D58" t="s">
-        <v>158</v>
-      </c>
-      <c r="E58" t="s">
-        <v>318</v>
-      </c>
-      <c r="H58" t="s">
-        <v>320</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>161</v>
-      </c>
-      <c r="B59" t="s">
-        <v>162</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E59" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H59" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="K59" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B60" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
       </c>
       <c r="D60" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60" t="s">
+        <v>320</v>
+      </c>
+      <c r="H60" t="s">
+        <v>323</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="K60" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" t="s">
+        <v>168</v>
+      </c>
+      <c r="E61" t="s">
+        <v>321</v>
+      </c>
+      <c r="H61" t="s">
+        <v>322</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>166</v>
       </c>
-      <c r="E60" t="s">
+      <c r="B62" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62" t="s">
         <v>323</v>
       </c>
-      <c r="H60" t="s">
-        <v>326</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>167</v>
-      </c>
-      <c r="B61" t="s">
-        <v>168</v>
-      </c>
-      <c r="C61" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="I62" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" t="s">
         <v>171</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E63" t="s">
         <v>324</v>
-      </c>
-      <c r="H61" t="s">
-        <v>325</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>169</v>
-      </c>
-      <c r="B62" t="s">
-        <v>170</v>
-      </c>
-      <c r="C62" t="s">
-        <v>177</v>
-      </c>
-      <c r="D62" t="s">
-        <v>163</v>
-      </c>
-      <c r="E62" t="s">
-        <v>326</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>172</v>
-      </c>
-      <c r="B63" t="s">
-        <v>173</v>
-      </c>
-      <c r="C63" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" t="s">
-        <v>174</v>
-      </c>
-      <c r="E63" t="s">
-        <v>327</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E64" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>175</v>
+      </c>
+      <c r="B65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" t="s">
+        <v>175</v>
+      </c>
+      <c r="H65" t="s">
+        <v>328</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>178</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>179</v>
       </c>
-      <c r="C65" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" t="s">
+        <v>326</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>180</v>
       </c>
-      <c r="E65" t="s">
-        <v>178</v>
-      </c>
-      <c r="H65" t="s">
-        <v>331</v>
-      </c>
-      <c r="I65" s="2" t="s">
+      <c r="B67" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67" t="s">
+        <v>175</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" t="s">
+        <v>174</v>
+      </c>
+      <c r="D68" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" t="s">
+        <v>326</v>
+      </c>
+      <c r="H68" t="s">
+        <v>327</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>184</v>
+      </c>
+      <c r="B69" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" t="s">
+        <v>174</v>
+      </c>
+      <c r="D69" t="s">
+        <v>186</v>
+      </c>
+      <c r="E69" t="s">
+        <v>329</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70" t="s">
+        <v>330</v>
+      </c>
+      <c r="I70" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>181</v>
-      </c>
-      <c r="B66" t="s">
-        <v>182</v>
-      </c>
-      <c r="C66" t="s">
-        <v>40</v>
-      </c>
-      <c r="D66" t="s">
-        <v>180</v>
-      </c>
-      <c r="E66" t="s">
-        <v>329</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>183</v>
-      </c>
-      <c r="B67" t="s">
-        <v>184</v>
-      </c>
-      <c r="C67" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67" t="s">
-        <v>180</v>
-      </c>
-      <c r="E67" t="s">
-        <v>178</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>185</v>
-      </c>
-      <c r="B68" t="s">
-        <v>186</v>
-      </c>
-      <c r="C68" t="s">
-        <v>177</v>
-      </c>
-      <c r="D68" t="s">
-        <v>180</v>
-      </c>
-      <c r="E68" t="s">
-        <v>329</v>
-      </c>
-      <c r="H68" t="s">
-        <v>330</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>187</v>
-      </c>
-      <c r="B69" t="s">
-        <v>188</v>
-      </c>
-      <c r="C69" t="s">
-        <v>177</v>
-      </c>
-      <c r="D69" t="s">
-        <v>189</v>
-      </c>
-      <c r="E69" t="s">
-        <v>332</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>190</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="J70" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>191</v>
       </c>
-      <c r="C70" t="s">
-        <v>177</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="B71" t="s">
         <v>192</v>
       </c>
-      <c r="E70" t="s">
-        <v>333</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="C71" t="s">
+        <v>174</v>
+      </c>
+      <c r="D71" t="s">
+        <v>193</v>
+      </c>
+      <c r="E71" t="s">
+        <v>335</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>194</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>195</v>
-      </c>
-      <c r="C71" t="s">
-        <v>177</v>
-      </c>
-      <c r="D71" t="s">
-        <v>196</v>
-      </c>
-      <c r="E71" t="s">
-        <v>338</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>197</v>
-      </c>
-      <c r="B72" t="s">
-        <v>198</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E72" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H72" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K72" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B73" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
       </c>
       <c r="D73" t="s">
+        <v>193</v>
+      </c>
+      <c r="E73" t="s">
+        <v>202</v>
+      </c>
+      <c r="H73" t="s">
+        <v>387</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K73" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>196</v>
       </c>
-      <c r="E73" t="s">
+      <c r="B74" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" t="s">
+        <v>193</v>
+      </c>
+      <c r="E74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" t="s">
+        <v>193</v>
+      </c>
+      <c r="E75" t="s">
+        <v>198</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" t="s">
         <v>205</v>
       </c>
-      <c r="H73" t="s">
-        <v>390</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>199</v>
-      </c>
-      <c r="B74" t="s">
-        <v>200</v>
-      </c>
-      <c r="C74" t="s">
-        <v>36</v>
-      </c>
-      <c r="D74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E74" t="s">
-        <v>201</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>206</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" t="s">
+        <v>193</v>
+      </c>
+      <c r="E76" t="s">
         <v>207</v>
       </c>
-      <c r="C75" t="s">
-        <v>36</v>
-      </c>
-      <c r="D75" t="s">
-        <v>196</v>
-      </c>
-      <c r="E75" t="s">
-        <v>201</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>209</v>
-      </c>
-      <c r="B76" t="s">
-        <v>208</v>
-      </c>
-      <c r="C76" t="s">
-        <v>36</v>
-      </c>
-      <c r="D76" t="s">
-        <v>196</v>
-      </c>
-      <c r="E76" t="s">
-        <v>210</v>
-      </c>
       <c r="H76" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>208</v>
+      </c>
+      <c r="B77" t="s">
+        <v>209</v>
+      </c>
+      <c r="C77" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" t="s">
+        <v>193</v>
+      </c>
+      <c r="E77" t="s">
+        <v>201</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>208</v>
+      </c>
+      <c r="B78" t="s">
+        <v>210</v>
+      </c>
+      <c r="C78" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" t="s">
         <v>211</v>
       </c>
-      <c r="B77" t="s">
+      <c r="E78" t="s">
+        <v>335</v>
+      </c>
+      <c r="H78" t="s">
+        <v>344</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>212</v>
       </c>
-      <c r="C77" t="s">
-        <v>40</v>
-      </c>
-      <c r="D77" t="s">
-        <v>196</v>
-      </c>
-      <c r="E77" t="s">
-        <v>204</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>211</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>213</v>
       </c>
-      <c r="C78" t="s">
-        <v>40</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="C79" t="s">
+        <v>174</v>
+      </c>
+      <c r="E79" t="s">
+        <v>331</v>
+      </c>
+      <c r="H79" t="s">
+        <v>332</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>216</v>
+      </c>
+      <c r="B80" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" t="s">
+        <v>95</v>
+      </c>
+      <c r="D80" t="s">
+        <v>218</v>
+      </c>
+      <c r="E80" t="s">
+        <v>333</v>
+      </c>
+      <c r="H80" t="s">
+        <v>343</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>216</v>
+      </c>
+      <c r="B81" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" t="s">
+        <v>218</v>
+      </c>
+      <c r="E81" t="s">
+        <v>334</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>214</v>
       </c>
-      <c r="E78" t="s">
+      <c r="B82" t="s">
+        <v>215</v>
+      </c>
+      <c r="C82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D82" t="s">
+        <v>220</v>
+      </c>
+      <c r="E82" t="s">
+        <v>339</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>221</v>
+      </c>
+      <c r="B83" t="s">
+        <v>222</v>
+      </c>
+      <c r="C83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" t="s">
+        <v>223</v>
+      </c>
+      <c r="E83" t="s">
         <v>338</v>
       </c>
-      <c r="H78" t="s">
-        <v>347</v>
-      </c>
-      <c r="I78" s="2" t="s">
+      <c r="I83" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>224</v>
+      </c>
+      <c r="B84" t="s">
+        <v>225</v>
+      </c>
+      <c r="D84" t="s">
+        <v>226</v>
+      </c>
+      <c r="E84" t="s">
+        <v>336</v>
+      </c>
+      <c r="H84" t="s">
+        <v>337</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K84" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>227</v>
+      </c>
+      <c r="B85" t="s">
+        <v>228</v>
+      </c>
+      <c r="C85" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" t="s">
+        <v>229</v>
+      </c>
+      <c r="E85" t="s">
+        <v>337</v>
+      </c>
+      <c r="H85" t="s">
+        <v>340</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>230</v>
+      </c>
+      <c r="B86" t="s">
+        <v>231</v>
+      </c>
+      <c r="E86" t="s">
+        <v>341</v>
+      </c>
+      <c r="I86" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>215</v>
-      </c>
-      <c r="B79" t="s">
-        <v>216</v>
-      </c>
-      <c r="C79" t="s">
-        <v>177</v>
-      </c>
-      <c r="E79" t="s">
-        <v>334</v>
-      </c>
-      <c r="H79" t="s">
-        <v>335</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>219</v>
-      </c>
-      <c r="B80" t="s">
-        <v>220</v>
-      </c>
-      <c r="C80" t="s">
-        <v>98</v>
-      </c>
-      <c r="D80" t="s">
-        <v>221</v>
-      </c>
-      <c r="E80" t="s">
-        <v>336</v>
-      </c>
-      <c r="H80" t="s">
-        <v>346</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>219</v>
-      </c>
-      <c r="B81" t="s">
-        <v>222</v>
-      </c>
-      <c r="C81" t="s">
-        <v>98</v>
-      </c>
-      <c r="D81" t="s">
-        <v>221</v>
-      </c>
-      <c r="E81" t="s">
-        <v>337</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>217</v>
-      </c>
-      <c r="B82" t="s">
-        <v>218</v>
-      </c>
-      <c r="C82" t="s">
-        <v>98</v>
-      </c>
-      <c r="D82" t="s">
-        <v>223</v>
-      </c>
-      <c r="E82" t="s">
-        <v>342</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>224</v>
-      </c>
-      <c r="B83" t="s">
-        <v>225</v>
-      </c>
-      <c r="C83" t="s">
-        <v>36</v>
-      </c>
-      <c r="D83" t="s">
-        <v>226</v>
-      </c>
-      <c r="E83" t="s">
-        <v>341</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>227</v>
-      </c>
-      <c r="B84" t="s">
-        <v>228</v>
-      </c>
-      <c r="D84" t="s">
-        <v>229</v>
-      </c>
-      <c r="E84" t="s">
-        <v>339</v>
-      </c>
-      <c r="H84" t="s">
-        <v>340</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>230</v>
-      </c>
-      <c r="B85" t="s">
-        <v>231</v>
-      </c>
-      <c r="C85" t="s">
-        <v>40</v>
-      </c>
-      <c r="D85" t="s">
-        <v>232</v>
-      </c>
-      <c r="E85" t="s">
-        <v>340</v>
-      </c>
-      <c r="H85" t="s">
-        <v>343</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>233</v>
-      </c>
-      <c r="B86" t="s">
-        <v>234</v>
-      </c>
-      <c r="E86" t="s">
-        <v>344</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="K86" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
       </c>
       <c r="D87" t="s">
+        <v>237</v>
+      </c>
+      <c r="E87" t="s">
+        <v>237</v>
+      </c>
+      <c r="H87" t="s">
+        <v>346</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="K87" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>238</v>
+      </c>
+      <c r="B88" t="s">
+        <v>275</v>
+      </c>
+      <c r="C88" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" t="s">
+        <v>239</v>
+      </c>
+      <c r="E88" t="s">
+        <v>239</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>240</v>
       </c>
-      <c r="E87" t="s">
-        <v>240</v>
-      </c>
-      <c r="H87" t="s">
-        <v>349</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="B89" t="s">
+        <v>393</v>
+      </c>
+      <c r="C89" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" t="s">
+        <v>276</v>
+      </c>
+      <c r="E89" t="s">
+        <v>276</v>
+      </c>
+      <c r="H89" t="s">
+        <v>345</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>241</v>
       </c>
-      <c r="B88" t="s">
-        <v>278</v>
-      </c>
-      <c r="C88" t="s">
-        <v>40</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="B90" t="s">
         <v>242</v>
       </c>
-      <c r="E88" t="s">
-        <v>242</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="C90" t="s">
+        <v>95</v>
+      </c>
+      <c r="E90" t="s">
         <v>243</v>
       </c>
-      <c r="B89" t="s">
-        <v>396</v>
-      </c>
-      <c r="C89" t="s">
-        <v>40</v>
-      </c>
-      <c r="D89" t="s">
-        <v>279</v>
-      </c>
-      <c r="E89" t="s">
-        <v>279</v>
-      </c>
-      <c r="H89" t="s">
-        <v>348</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="I90" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>244</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>245</v>
       </c>
-      <c r="C90" t="s">
-        <v>98</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="C91" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" t="s">
         <v>246</v>
       </c>
-      <c r="I90" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>247</v>
-      </c>
-      <c r="B91" t="s">
-        <v>248</v>
-      </c>
-      <c r="C91" t="s">
-        <v>40</v>
-      </c>
-      <c r="D91" t="s">
-        <v>249</v>
-      </c>
       <c r="E91" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B92" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E92" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J92" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K92" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>257</v>
+      </c>
+      <c r="B93" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" t="s">
+        <v>250</v>
+      </c>
+      <c r="E93" t="s">
+        <v>349</v>
+      </c>
+      <c r="H93" t="s">
+        <v>352</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>251</v>
+      </c>
+      <c r="B94" t="s">
+        <v>252</v>
+      </c>
+      <c r="C94" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" t="s">
+        <v>253</v>
+      </c>
+      <c r="E94" t="s">
+        <v>350</v>
+      </c>
+      <c r="H94" t="s">
+        <v>348</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>254</v>
+      </c>
+      <c r="B95" t="s">
+        <v>255</v>
+      </c>
+      <c r="C95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95" t="s">
+        <v>258</v>
+      </c>
+      <c r="E95" t="s">
+        <v>348</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>259</v>
+      </c>
+      <c r="B96" t="s">
         <v>260</v>
       </c>
-      <c r="B93" t="s">
-        <v>259</v>
-      </c>
-      <c r="C93" t="s">
-        <v>36</v>
-      </c>
-      <c r="D93" t="s">
-        <v>253</v>
-      </c>
-      <c r="E93" t="s">
-        <v>352</v>
-      </c>
-      <c r="H93" t="s">
-        <v>355</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>254</v>
-      </c>
-      <c r="B94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C94" t="s">
-        <v>40</v>
-      </c>
-      <c r="D94" t="s">
-        <v>256</v>
-      </c>
-      <c r="E94" t="s">
-        <v>353</v>
-      </c>
-      <c r="H94" t="s">
-        <v>351</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>257</v>
-      </c>
-      <c r="B95" t="s">
-        <v>258</v>
-      </c>
-      <c r="C95" t="s">
-        <v>40</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="C96" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" t="s">
+        <v>250</v>
+      </c>
+      <c r="E96" t="s">
+        <v>349</v>
+      </c>
+      <c r="H96" t="s">
+        <v>348</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>261</v>
       </c>
-      <c r="E95" t="s">
-        <v>351</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="B97" t="s">
         <v>262</v>
-      </c>
-      <c r="B96" t="s">
-        <v>263</v>
-      </c>
-      <c r="C96" t="s">
-        <v>98</v>
-      </c>
-      <c r="D96" t="s">
-        <v>253</v>
-      </c>
-      <c r="E96" t="s">
-        <v>352</v>
-      </c>
-      <c r="H96" t="s">
-        <v>351</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>264</v>
-      </c>
-      <c r="B97" t="s">
-        <v>265</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E97" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="K97" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>263</v>
+      </c>
+      <c r="B98" t="s">
+        <v>264</v>
+      </c>
+      <c r="C98" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" t="s">
+        <v>265</v>
+      </c>
+      <c r="E98" t="s">
+        <v>353</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>266</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>267</v>
       </c>
-      <c r="C98" t="s">
-        <v>36</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="D99" t="s">
         <v>268</v>
       </c>
-      <c r="E98" t="s">
-        <v>356</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="E99" t="s">
+        <v>354</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="K99" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>269</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>270</v>
       </c>
-      <c r="D99" t="s">
+      <c r="C100" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" t="s">
         <v>271</v>
       </c>
-      <c r="E99" t="s">
-        <v>357</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="E100" t="s">
+        <v>355</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>272</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>273</v>
-      </c>
-      <c r="C100" t="s">
-        <v>36</v>
-      </c>
-      <c r="D100" t="s">
-        <v>274</v>
-      </c>
-      <c r="E100" t="s">
-        <v>358</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>275</v>
-      </c>
-      <c r="B101" t="s">
-        <v>276</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E101" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="K101" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
